--- a/Customer-Insights-Dashboard/Customer Insights Dashboard.xlsx
+++ b/Customer-Insights-Dashboard/Customer Insights Dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\مشاريعي\داشبورد\اكسل داشبورد مبيعات بناء ع العمر والجنس\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\مشاريعي\داشبورد\Customer Insights Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EC5EEB-CBD7-42CA-8099-1FA873A1694E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E54121-1EDF-4C90-9004-1DA324312E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{6556DAAF-B59F-4609-8694-C96778C89231}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1817,7 +1817,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -2318,7 +2317,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -11659,7 +11657,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{393935E4-C3D2-45D6-9EE8-0A920A960E34}" name="PivotTable44" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{393935E4-C3D2-45D6-9EE8-0A920A960E34}" name="PivotTable44" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -18909,7 +18907,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
